--- a/biology/Botanique/Aeginetia_indica/Aeginetia_indica.xlsx
+++ b/biology/Botanique/Aeginetia_indica/Aeginetia_indica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aeginetia indica est une espèce de plantes dicotylédones parasites de la famille des Orobanchaceae, originaire d'Asie.
-Cette plante herbacée holoparasite[2] épirhize[3] parasite diverses espèce de monocotylédones, notamment les Poaceae (graminées). Elle entraîne d'importantes baisses de rendement dans les cultures de canne à sucre, riz, sorgho, et graminées fourragères, en Inde, en Chine, au Japon et aux Philippines[4]. 
+Cette plante herbacée holoparasite épirhize parasite diverses espèce de monocotylédones, notamment les Poaceae (graminées). Elle entraîne d'importantes baisses de rendement dans les cultures de canne à sucre, riz, sorgho, et graminées fourragères, en Inde, en Chine, au Japon et aux Philippines. 
 </t>
         </is>
       </c>
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (18 février 2015)[5]  :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (18 février 2015)  :
 Aeginetia aeginetia (L.) Huth,
 Aeginetia boninensis Nakai,
 Aeginetia indica var. alba Santapau,
@@ -529,9 +546,43 @@
 Orobanche aeginetia L.,
 Orobanche ramosa var. indica (L.) O. Kuntze,
 Phelipaea abbreviata (Hamilton) Steudel,
-Phelipaea indica A. Spreng. ex Steud.
-Liste des variétés
-Selon Tropicos                                           (18 février 2015)[6] (Attention liste brute contenant possiblement des synonymes) :
+Phelipaea indica A. Spreng. ex Steud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aeginetia_indica</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aeginetia_indica</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (18 février 2015) (Attention liste brute contenant possiblement des synonymes) :
 variété Aeginetia indica var. gracilis Nakai
 variété Aeginetia indica var. sekitomoana Makino</t>
         </is>
